--- a/biology/Zoologie/Hubbardiidae/Hubbardiidae.xlsx
+++ b/biology/Zoologie/Hubbardiidae/Hubbardiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hubbardiidae sont une famille de schizomides.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Océanie, en Amérique, en Afrique et en Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Océanie, en Amérique, en Afrique et en Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Schizomids of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Schizomids of the World (version 1.0) :
 Hubbardiinae Cook, 1899
 Adisomus Cokendolpher &amp; Reddell, 2000
 Afrozomus Reddell &amp; Cokendolpher, 1995
@@ -624,8 +640,8 @@
 † Groehnizomus De Francesco Magnussen &amp; Müller, 2022
 † Mesozomus Müller, Dunlop, Kotthoff, Hammel &amp; Harms, 2019
 † Muellerizomus De Francesco Magnussen &amp; Müller, 2022
-Heteronochrus a été placé en synonymie avec Mayazomus par Monjaraz-Ruedas et Francke en 2015[2].
-Paradraculoides a été placé en synonymie avec Draculoides par Abrams, Huey, Hillyer, Humphreys, Didham et Harvey en 2019[3].
+Heteronochrus a été placé en synonymie avec Mayazomus par Monjaraz-Ruedas et Francke en 2015.
+Paradraculoides a été placé en synonymie avec Draculoides par Abrams, Huey, Hillyer, Humphreys, Didham et Harvey en 2019.
 </t>
         </is>
       </c>
@@ -654,7 +670,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cook, 1899 : « Hubbardia, a new genus of Pedipalpi. » Proceedings of the Entomological Society of Washington, vol. 4, p. 249-261 (texte intégral).</t>
         </is>
